--- a/data/pca/factorExposure/factorExposure_2013-03-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-11.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0002393291299229729</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002135314853815314</v>
+      </c>
+      <c r="C2">
+        <v>0.03266774921911454</v>
+      </c>
+      <c r="D2">
+        <v>0.0005764622471206913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001801497110919822</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005970787813967082</v>
+      </c>
+      <c r="C4">
+        <v>0.08437616625574403</v>
+      </c>
+      <c r="D4">
+        <v>0.08004611621109321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0006705560343645911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01359381329957544</v>
+      </c>
+      <c r="C6">
+        <v>0.1140692362774759</v>
+      </c>
+      <c r="D6">
+        <v>0.03060985915512855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001631025568944944</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004668103559463588</v>
+      </c>
+      <c r="C7">
+        <v>0.05607316309490933</v>
+      </c>
+      <c r="D7">
+        <v>0.03297184363632501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.000370219435114006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005628029207339507</v>
+      </c>
+      <c r="C8">
+        <v>0.03868863196762628</v>
+      </c>
+      <c r="D8">
+        <v>0.04269241429345735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004080160011354849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004098632881421295</v>
+      </c>
+      <c r="C9">
+        <v>0.07058106029538688</v>
+      </c>
+      <c r="D9">
+        <v>0.07047381339680424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004310533164980812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005280334662617166</v>
+      </c>
+      <c r="C10">
+        <v>0.06020382885477105</v>
+      </c>
+      <c r="D10">
+        <v>-0.2023472994461105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002642138760094427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005325439731022074</v>
+      </c>
+      <c r="C11">
+        <v>0.08057031372983428</v>
+      </c>
+      <c r="D11">
+        <v>0.0598945883890331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.000344230630529292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003960168720513634</v>
+      </c>
+      <c r="C12">
+        <v>0.06459397148807168</v>
+      </c>
+      <c r="D12">
+        <v>0.04505085879358972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003211148517363266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008521001323602411</v>
+      </c>
+      <c r="C13">
+        <v>0.06690281321970798</v>
+      </c>
+      <c r="D13">
+        <v>0.06819594866208228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001287091684610102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001339551635307767</v>
+      </c>
+      <c r="C14">
+        <v>0.04608469950129867</v>
+      </c>
+      <c r="D14">
+        <v>0.008455166392742778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009849474009329983</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.00582095848457994</v>
+      </c>
+      <c r="C15">
+        <v>0.04245134990188844</v>
+      </c>
+      <c r="D15">
+        <v>0.03073602924439734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001167839451382994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004913716739290364</v>
+      </c>
+      <c r="C16">
+        <v>0.0666487851385696</v>
+      </c>
+      <c r="D16">
+        <v>0.04512678540705291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001239463834718432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008794814293623627</v>
+      </c>
+      <c r="C20">
+        <v>0.06784102807041184</v>
+      </c>
+      <c r="D20">
+        <v>0.04673129006562245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005118915953691955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009716256369417982</v>
+      </c>
+      <c r="C21">
+        <v>0.0235898404724666</v>
+      </c>
+      <c r="D21">
+        <v>0.03309098920643776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01776215055210742</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006840120513231274</v>
+      </c>
+      <c r="C22">
+        <v>0.09494501886341257</v>
+      </c>
+      <c r="D22">
+        <v>0.09849773754777583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0180710553362095</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006661036029912052</v>
+      </c>
+      <c r="C23">
+        <v>0.0957341891330467</v>
+      </c>
+      <c r="D23">
+        <v>0.09862103949163546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001829666804499811</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005022383053943934</v>
+      </c>
+      <c r="C24">
+        <v>0.07599020485352675</v>
+      </c>
+      <c r="D24">
+        <v>0.0579493979485954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003690890296177419</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002743297585323677</v>
+      </c>
+      <c r="C25">
+        <v>0.0784119929248093</v>
+      </c>
+      <c r="D25">
+        <v>0.06511615350983392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00573705131443342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003475761407065095</v>
+      </c>
+      <c r="C26">
+        <v>0.04155642188016836</v>
+      </c>
+      <c r="D26">
+        <v>0.02421589241261943</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004037580680307263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001262566991457995</v>
+      </c>
+      <c r="C28">
+        <v>0.1071703829595475</v>
+      </c>
+      <c r="D28">
+        <v>-0.3192056002158906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009217843453620915</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002968922122911744</v>
+      </c>
+      <c r="C29">
+        <v>0.04949878666329675</v>
+      </c>
+      <c r="D29">
+        <v>0.003700455962960358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003202433568201899</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008887283952361866</v>
+      </c>
+      <c r="C30">
+        <v>0.1454517100894286</v>
+      </c>
+      <c r="D30">
+        <v>0.1001251988420238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0009880769310346728</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006047258678396487</v>
+      </c>
+      <c r="C31">
+        <v>0.04490676514212045</v>
+      </c>
+      <c r="D31">
+        <v>0.03336842273217361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.000142444716158646</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003741719607737551</v>
+      </c>
+      <c r="C32">
+        <v>0.04087772357483765</v>
+      </c>
+      <c r="D32">
+        <v>0.02146074748889539</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002960363382031437</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007947091869329893</v>
+      </c>
+      <c r="C33">
+        <v>0.08693819441142805</v>
+      </c>
+      <c r="D33">
+        <v>0.0690838505703132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004175813521990451</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003771999481422822</v>
+      </c>
+      <c r="C34">
+        <v>0.05883706785704654</v>
+      </c>
+      <c r="D34">
+        <v>0.05030580204239388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002385776494310492</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004720901079185841</v>
+      </c>
+      <c r="C35">
+        <v>0.03906977365539328</v>
+      </c>
+      <c r="D35">
+        <v>0.01386151977613426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003935069922445271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001457080045592933</v>
+      </c>
+      <c r="C36">
+        <v>0.02440097737561745</v>
+      </c>
+      <c r="D36">
+        <v>0.0212165110534957</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002637508393762122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009415337921935451</v>
+      </c>
+      <c r="C38">
+        <v>0.034002226455943</v>
+      </c>
+      <c r="D38">
+        <v>0.01767399083683767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01221060609677149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001089649356128346</v>
+      </c>
+      <c r="C39">
+        <v>0.1173725776993327</v>
+      </c>
+      <c r="D39">
+        <v>0.07117591217741527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009202441003633618</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002031469895898877</v>
+      </c>
+      <c r="C40">
+        <v>0.088783012015423</v>
+      </c>
+      <c r="D40">
+        <v>0.01589499593483443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003248592811567012</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.00715475010426324</v>
+      </c>
+      <c r="C41">
+        <v>0.03788140423645969</v>
+      </c>
+      <c r="D41">
+        <v>0.03494000835010765</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003115667586520873</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003519701081178384</v>
+      </c>
+      <c r="C43">
+        <v>0.05199492353721763</v>
+      </c>
+      <c r="D43">
+        <v>0.02386289908016289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002867528395281681</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003136998396478577</v>
+      </c>
+      <c r="C44">
+        <v>0.1127026501635447</v>
+      </c>
+      <c r="D44">
+        <v>0.07117837096325617</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001376227468784407</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002265821961316414</v>
+      </c>
+      <c r="C46">
+        <v>0.0348417511784419</v>
+      </c>
+      <c r="D46">
+        <v>0.02922672566107639</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0001680014019219229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002678025304332484</v>
+      </c>
+      <c r="C47">
+        <v>0.03759572330184905</v>
+      </c>
+      <c r="D47">
+        <v>0.02690125325064546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003727308364894617</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006322781473978283</v>
+      </c>
+      <c r="C48">
+        <v>0.02895022051597057</v>
+      </c>
+      <c r="D48">
+        <v>0.03106710052612654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01339128791649173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01446222151755133</v>
+      </c>
+      <c r="C49">
+        <v>0.1836006252853987</v>
+      </c>
+      <c r="D49">
+        <v>0.01308059763982191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006478551174483644</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003544472236756765</v>
+      </c>
+      <c r="C50">
+        <v>0.0441474678324331</v>
+      </c>
+      <c r="D50">
+        <v>0.03602306505056594</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0006857294956456617</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004243089526411098</v>
+      </c>
+      <c r="C51">
+        <v>0.0254168048190913</v>
+      </c>
+      <c r="D51">
+        <v>0.02088405576434496</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0004799098958078675</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02019122423724177</v>
+      </c>
+      <c r="C53">
+        <v>0.1685902201083611</v>
+      </c>
+      <c r="D53">
+        <v>0.03869907154275985</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001603795363358089</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008572818682621485</v>
+      </c>
+      <c r="C54">
+        <v>0.0558161647989134</v>
+      </c>
+      <c r="D54">
+        <v>0.04176180717411037</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.00430613953575097</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009266643186292826</v>
+      </c>
+      <c r="C55">
+        <v>0.1099296724408358</v>
+      </c>
+      <c r="D55">
+        <v>0.0455555348466742</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002855249671924934</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0195981271413103</v>
+      </c>
+      <c r="C56">
+        <v>0.1756435390585994</v>
+      </c>
+      <c r="D56">
+        <v>0.03587669155255971</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006948163047517281</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01946459222892042</v>
+      </c>
+      <c r="C58">
+        <v>0.1125104857252342</v>
+      </c>
+      <c r="D58">
+        <v>0.05216079835068917</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006819087493683386</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.008982937038920977</v>
+      </c>
+      <c r="C59">
+        <v>0.1606615147939406</v>
+      </c>
+      <c r="D59">
+        <v>-0.3060860026806329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004273904942381015</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02289033174438473</v>
+      </c>
+      <c r="C60">
+        <v>0.2229768914877222</v>
+      </c>
+      <c r="D60">
+        <v>0.02252565701071911</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.0139686963297064</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.0021672534419209</v>
+      </c>
+      <c r="C61">
+        <v>0.09519189222934529</v>
+      </c>
+      <c r="D61">
+        <v>0.05750215320885724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.168656479747632</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1441665579205419</v>
+      </c>
+      <c r="C62">
+        <v>0.08859462628909116</v>
+      </c>
+      <c r="D62">
+        <v>0.05226252556074613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001347385007432932</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006081231106487976</v>
+      </c>
+      <c r="C63">
+        <v>0.05669555878811253</v>
+      </c>
+      <c r="D63">
+        <v>0.02521199282964525</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.004968870098368159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01474468419047641</v>
+      </c>
+      <c r="C64">
+        <v>0.1041492234639327</v>
+      </c>
+      <c r="D64">
+        <v>0.05824184778911107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002174131384912972</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01733736922099168</v>
+      </c>
+      <c r="C65">
+        <v>0.1213002785182777</v>
+      </c>
+      <c r="D65">
+        <v>0.01716504811567558</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007047356692165396</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01232149609032668</v>
+      </c>
+      <c r="C66">
+        <v>0.1595289704292142</v>
+      </c>
+      <c r="D66">
+        <v>0.1124553486774523</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003942898651403919</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01544211800283173</v>
+      </c>
+      <c r="C67">
+        <v>0.0644890550074219</v>
+      </c>
+      <c r="D67">
+        <v>0.02663224583536474</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006151116610663418</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.000435893785240894</v>
+      </c>
+      <c r="C68">
+        <v>0.08826109448028824</v>
+      </c>
+      <c r="D68">
+        <v>-0.2538787537028653</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002835173895518928</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005957993572503786</v>
+      </c>
+      <c r="C69">
+        <v>0.05050618026895375</v>
+      </c>
+      <c r="D69">
+        <v>0.03982009633041157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.000166663640473027</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001868568033775642</v>
+      </c>
+      <c r="C70">
+        <v>0.002735147414517732</v>
+      </c>
+      <c r="D70">
+        <v>0.0013085813644027</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0002184589127441609</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005625102664438313</v>
+      </c>
+      <c r="C71">
+        <v>0.09796458420617297</v>
+      </c>
+      <c r="D71">
+        <v>-0.3008082724459744</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.0047971031079653</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01547373201341987</v>
+      </c>
+      <c r="C72">
+        <v>0.15001664480821</v>
+      </c>
+      <c r="D72">
+        <v>0.02495384297605639</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01259845203886568</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02895872882982142</v>
+      </c>
+      <c r="C73">
+        <v>0.2776405137913267</v>
+      </c>
+      <c r="D73">
+        <v>0.04333986823428837</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005037676410970203</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001383299970660215</v>
+      </c>
+      <c r="C74">
+        <v>0.1046702807098481</v>
+      </c>
+      <c r="D74">
+        <v>0.04121661048115282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002271016628708072</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01061039105947273</v>
+      </c>
+      <c r="C75">
+        <v>0.12984742269793</v>
+      </c>
+      <c r="D75">
+        <v>0.02422399885700126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.00928174052964491</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02130700668932248</v>
+      </c>
+      <c r="C76">
+        <v>0.1501497203231195</v>
+      </c>
+      <c r="D76">
+        <v>0.06673905497480656</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0006999206705909526</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02342735743607463</v>
+      </c>
+      <c r="C77">
+        <v>0.1335800504267009</v>
+      </c>
+      <c r="D77">
+        <v>0.04528988165130524</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0009615400431797973</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01431670649292229</v>
+      </c>
+      <c r="C78">
+        <v>0.09516048111834097</v>
+      </c>
+      <c r="D78">
+        <v>0.06476050194114311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0236625458689755</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03703684912706799</v>
+      </c>
+      <c r="C79">
+        <v>0.1558773802833823</v>
+      </c>
+      <c r="D79">
+        <v>0.03640262246871567</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004472059739827516</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01055546715116095</v>
+      </c>
+      <c r="C80">
+        <v>0.04314513260451924</v>
+      </c>
+      <c r="D80">
+        <v>0.0282474792841845</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0009119935045853919</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01465177473832781</v>
+      </c>
+      <c r="C81">
+        <v>0.1266715795064109</v>
+      </c>
+      <c r="D81">
+        <v>0.04591229974819791</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005699555581209127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01950777826930348</v>
+      </c>
+      <c r="C82">
+        <v>0.1442342808801379</v>
+      </c>
+      <c r="D82">
+        <v>0.04407117476228661</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.00890662835432738</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009979721166086615</v>
+      </c>
+      <c r="C83">
+        <v>0.05722062057216878</v>
+      </c>
+      <c r="D83">
+        <v>0.05592177561311235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01327417863858873</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01164596668359007</v>
+      </c>
+      <c r="C84">
+        <v>0.0380253331508579</v>
+      </c>
+      <c r="D84">
+        <v>-0.008368191796608653</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01463352596530843</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.0278119619066538</v>
+      </c>
+      <c r="C85">
+        <v>0.1296821312517799</v>
+      </c>
+      <c r="D85">
+        <v>0.04635460289151019</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0008641479795640515</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005266881931531986</v>
+      </c>
+      <c r="C86">
+        <v>0.04905492827614658</v>
+      </c>
+      <c r="D86">
+        <v>0.02332959368870751</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004599488460210312</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01022701761443851</v>
+      </c>
+      <c r="C87">
+        <v>0.1339835266355499</v>
+      </c>
+      <c r="D87">
+        <v>0.06219507580160245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01295418592621384</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003135197986797691</v>
+      </c>
+      <c r="C88">
+        <v>0.06743416387964189</v>
+      </c>
+      <c r="D88">
+        <v>0.009017227192794701</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01435271664198159</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00209975029579484</v>
+      </c>
+      <c r="C89">
+        <v>0.1457062247685362</v>
+      </c>
+      <c r="D89">
+        <v>-0.345606497032273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002163947967914506</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006469092555273311</v>
+      </c>
+      <c r="C90">
+        <v>0.1220074291602385</v>
+      </c>
+      <c r="D90">
+        <v>-0.3248067548380376</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001289006912236503</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01016096400726797</v>
+      </c>
+      <c r="C91">
+        <v>0.1031427934363558</v>
+      </c>
+      <c r="D91">
+        <v>0.02447584296358263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008479276599524611</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0001705242914852698</v>
+      </c>
+      <c r="C92">
+        <v>0.1349030805307008</v>
+      </c>
+      <c r="D92">
+        <v>-0.3353543227573683</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0002031967928783613</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004446017298919484</v>
+      </c>
+      <c r="C93">
+        <v>0.1049383209286544</v>
+      </c>
+      <c r="D93">
+        <v>-0.3131948685490779</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004207886087927234</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02220723206775175</v>
+      </c>
+      <c r="C94">
+        <v>0.1523614461720613</v>
+      </c>
+      <c r="D94">
+        <v>0.04945957109393829</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005207281744658464</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01595659488202727</v>
+      </c>
+      <c r="C95">
+        <v>0.127453999454433</v>
+      </c>
+      <c r="D95">
+        <v>0.06320265046890018</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002247821138171441</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03399342824204227</v>
+      </c>
+      <c r="C97">
+        <v>0.1949275987776775</v>
+      </c>
+      <c r="D97">
+        <v>0.00519864534179891</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.00412622736137072</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03581314803164296</v>
+      </c>
+      <c r="C98">
+        <v>0.2473746615743917</v>
+      </c>
+      <c r="D98">
+        <v>0.05066145406542833</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.983787890174725</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9827299550408126</v>
+      </c>
+      <c r="C99">
+        <v>-0.1114927697969821</v>
+      </c>
+      <c r="D99">
+        <v>-0.02878572157403406</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008693347116634661</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003014587930546043</v>
+      </c>
+      <c r="C101">
+        <v>0.04963027822824627</v>
+      </c>
+      <c r="D101">
+        <v>0.003855515317639958</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
